--- a/Files/Vaccine_December 5, 2001.xlsx
+++ b/Files/Vaccine_December 5, 2001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="118">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP/&amp;curren;</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -62,11 +62,7 @@
     <t xml:space="preserve">Aventis Pasteur</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 dose vial
-10 x 1 dose vial</t>
+    <t xml:space="preserve">15 dose vial 10 x 1 dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">Infanrix</t>
@@ -81,7 +77,7 @@
     <t xml:space="preserve">GlaxoSmithKline</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hib #</t>
+    <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -99,14 +95,13 @@
     <t xml:space="preserve">Aventis Pateur</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV&amp;bull;&amp;curren;</t>
+    <t xml:space="preserve">e-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
   </si>
   <si>
-    <t xml:space="preserve">10 dose vial
-10 x 1 dose syringe</t>
+    <t xml:space="preserve">10 dose vial 10 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$8.25</t>
@@ -115,7 +110,7 @@
     <t xml:space="preserve">$15.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Hibi &amp;curren;</t>
+    <t xml:space="preserve">Hepatitis B-Hibi </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -133,14 +128,13 @@
     <t xml:space="preserve">Merck</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric&amp;curren;</t>
+    <t xml:space="preserve">Hepatitis A Pediatric</t>
   </si>
   <si>
     <t xml:space="preserve">VAQTA</t>
   </si>
   <si>
-    <t xml:space="preserve">5 x 1 dose vial
-5 x 1 dose syringes</t>
+    <t xml:space="preserve">5 x 1 dose vial 5 x 1 dose syringes</t>
   </si>
   <si>
     <t xml:space="preserve">$11.15</t>
@@ -152,20 +146,16 @@
     <t xml:space="preserve">Havrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial
-1 dose vial
-5 x 1 dose TipLok
-25 x 1 dose TipLok</t>
+    <t xml:space="preserve">10 x 1 dose vial 1 dose vial 5 x 1 dose TipLok 25 x 1 dose TipLok</t>
   </si>
   <si>
     <t xml:space="preserve">$29.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult&amp;curren;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 x 1 dose vials
-5 x 1 dose syringe</t>
+    <t xml:space="preserve">Hepatitis A Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 1 dose vials 5 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$17.20</t>
@@ -174,9 +164,7 @@
     <t xml:space="preserve">$51.71</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose vial
-1 dose TIP-LOK
-5 x 1 dose TIP-LOK</t>
+    <t xml:space="preserve">1 dose vial 1 dose TIP-LOK 5 x 1 dose TIP-LOK</t>
   </si>
   <si>
     <t xml:space="preserve">$16.82</t>
@@ -185,31 +173,25 @@
     <t xml:space="preserve">$59.45</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult&amp;curren;</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult</t>
   </si>
   <si>
     <t xml:space="preserve">Twinris</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-x 1dose vial
-5 x 1 dose TIP-LOK</t>
+    <t xml:space="preserve">10 x 1dose vial 5 x 1 dose TIP-LOK</t>
   </si>
   <si>
     <t xml:space="preserve">$36.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B&amp;bull;&amp;curren; Preservative Free Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B Preservative Free Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vials
-5 x 1 dose 23G TipLok
-5 x 1 dose 25G TipLok
-251 dose 23G TipLok
-251 dose 25G TipLok</t>
+    <t xml:space="preserve">10 x 1 dose vials 5 x 1 dose 23G TipLok 5 x 1 dose 25G TipLok 251 dose 23G TipLok 251 dose 25G TipLok</t>
   </si>
   <si>
     <t xml:space="preserve">$9.00</t>
@@ -224,22 +206,19 @@
     <t xml:space="preserve">$21.40</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B 2 dose&amp;bull; Adolescent (11-15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 x 1 dose vials
-5 x 1 dose syringes</t>
+    <t xml:space="preserve">Hepatitis B 2 dose Adolescent (11-15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 x 1 dose vials 5 x 1 dose syringes</t>
   </si>
   <si>
     <t xml:space="preserve">$23.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult&amp;bull;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 x 1 dose vials
-10 x 3 dose vial
-5 x 1 dose syringe</t>
+    <t xml:space="preserve">Hepatitis B-Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 x 1 dose vials 10 x 3 dose vial 5 x 1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$56.20</t>
@@ -248,9 +227,7 @@
     <t xml:space="preserve">ENGERIX-B</t>
   </si>
   <si>
-    <t xml:space="preserve">1 x 1 dose vial
-5 x 1 dose Tiplok
-25 x 1 dose Tiplok</t>
+    <t xml:space="preserve">1 x 1 dose vial 5 x 1 dose Tiplok 25 x 1 dose Tiplok</t>
   </si>
   <si>
     <t xml:space="preserve">$23.25</t>
@@ -259,7 +236,7 @@
     <t xml:space="preserve">$51.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib&amp;bull;&amp;curren;</t>
+    <t xml:space="preserve">Hib</t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -319,7 +296,7 @@
     <t xml:space="preserve">GIV (Evans)</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/&amp;curren;</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -331,7 +308,7 @@
     <t xml:space="preserve">$28.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles&amp;bull;&amp;curren;</t>
+    <t xml:space="preserve">Measles</t>
   </si>
   <si>
     <t xml:space="preserve">Attenuvax</t>
@@ -343,7 +320,7 @@
     <t xml:space="preserve">$10.52</t>
   </si>
   <si>
-    <t xml:space="preserve">Mumps&amp;bull;&amp;curren;</t>
+    <t xml:space="preserve">Mumps</t>
   </si>
   <si>
     <t xml:space="preserve">Mumpsvax</t>
@@ -355,8 +332,7 @@
     <t xml:space="preserve">$13.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-7-valent&amp;bull;&amp;curren; (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -368,7 +344,7 @@
     <t xml:space="preserve">$58.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Rubella&amp;bull;&amp;curren;</t>
+    <t xml:space="preserve">Rubella</t>
   </si>
   <si>
     <t xml:space="preserve">Meuvax II</t>
@@ -380,7 +356,7 @@
     <t xml:space="preserve">$11.77</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella&amp;bull;&amp;curren;</t>
+    <t xml:space="preserve">Varicella</t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -570,7 +546,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -579,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -602,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -611,16 +587,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1">
+        <v>37346</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="1">
-        <v>37346</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -628,28 +604,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1">
+        <v>37346</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="1">
-        <v>37346</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -657,22 +633,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>37346</v>
@@ -686,28 +662,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="1">
+        <v>37346</v>
+      </c>
+      <c r="H7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="1">
-        <v>37346</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -715,28 +691,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
       <c r="G8" s="1">
         <v>37346</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -744,28 +720,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" s="1">
         <v>37346</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -773,28 +749,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>37437</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -802,28 +778,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>37437</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -831,19 +807,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -852,7 +828,7 @@
         <v>37437</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -860,28 +836,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
       <c r="G13" s="1">
         <v>37346</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -889,10 +865,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -901,16 +877,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="1">
         <v>37346</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -918,20 +894,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
@@ -939,7 +915,7 @@
         <v>37346</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -947,28 +923,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="1">
         <v>37437</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -976,28 +952,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
       </c>
       <c r="G17" s="1">
         <v>37437</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1005,28 +981,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>77</v>
       </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
       <c r="G18" s="1">
         <v>37346</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1034,28 +1010,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>81</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="1">
+        <v>37346</v>
+      </c>
+      <c r="H19" t="s">
         <v>82</v>
-      </c>
-      <c r="G19" s="1">
-        <v>37346</v>
-      </c>
-      <c r="H19" t="s">
-        <v>83</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1063,28 +1039,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
-        <v>86</v>
-      </c>
       <c r="G20" s="1">
         <v>37346</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1092,22 +1068,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>89</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>91</v>
       </c>
       <c r="G21" s="1">
         <v>37287</v>
@@ -1121,19 +1097,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1142,7 +1118,7 @@
         <v>37287</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1150,28 +1126,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
         <v>95</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>97</v>
       </c>
-      <c r="F23" t="s">
-        <v>98</v>
-      </c>
       <c r="G23" s="1">
         <v>37346</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1179,28 +1155,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>101</v>
       </c>
-      <c r="F24" t="s">
-        <v>102</v>
-      </c>
       <c r="G24" s="1">
         <v>37346</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1208,28 +1184,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>105</v>
       </c>
-      <c r="F25" t="s">
-        <v>106</v>
-      </c>
       <c r="G25" s="1">
         <v>37346</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1237,28 +1213,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
         <v>107</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>109</v>
       </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
       <c r="G26" s="1">
         <v>37346</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1266,28 +1242,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>113</v>
       </c>
-      <c r="F27" t="s">
-        <v>114</v>
-      </c>
       <c r="G27" s="1">
         <v>37346</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1295,10 +1271,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
         <v>115</v>
-      </c>
-      <c r="B28" t="s">
-        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1307,16 +1283,16 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
         <v>117</v>
       </c>
-      <c r="F28" t="s">
-        <v>118</v>
-      </c>
       <c r="G28" s="1">
         <v>37346</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
